--- a/uploads/process-files/2026/01/3.xlsx
+++ b/uploads/process-files/2026/01/3.xlsx
@@ -1394,6 +1394,5706 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId133"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId135"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId137"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId139"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId140"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId150"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19050"/>
+          <a:ext cx="38100" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId152"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId154"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="19050"/>
+          <a:ext cx="361950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2543,7 +8243,9 @@
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="I30:P30"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins bottom="0.1" footer="0.3" header="0.3" left="0.1" right="0.1" top="0.1"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>